--- a/_testing/output/tablex_test2.xlsx
+++ b/_testing/output/tablex_test2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="29">
   <si>
     <t>Test 2: Summary Statistics by Origin</t>
   </si>
@@ -106,10 +106,862 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="202">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="403">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -972,7 +1824,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="134">
+  <borders count="267">
     <border>
       <left/>
       <right/>
@@ -1887,11 +2739,918 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2410,6 +4169,526 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2428,190 +4707,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="true"/>
-    <col min="3" max="8" width="16.7109375" style="4" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="135" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" style="136" customWidth="true"/>
+    <col min="3" max="8" width="16.7109375" style="137" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="134" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="170" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="226" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="227" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="245" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="249" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="251" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="119" t="s">
+      <c r="H5" s="252" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="254" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="259" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="266" t="s">
         <v>28</v>
       </c>
     </row>
